--- a/medicine/Enfance/Julie_(magazine)/Julie_(magazine).xlsx
+++ b/medicine/Enfance/Julie_(magazine)/Julie_(magazine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Julie est un magazine français pour ados , édité par Milan Presse, filiale du groupe Bayard Presse.
@@ -513,7 +525,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julie t'éclaire : Zoom, BD, Ça fait débat, 24 H avec, BD, Sélection
 Julie te raconte : Un jour, une fille, Bulle d'air
@@ -547,7 +561,9 @@
           <t>Folili, le forum des lectrices de Julie !</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Folili est le forum du magazine Julie. Il a ouvert en décembre 2007. Sa première version graphique a été remplacée par une seconde version en avril 2014. Il sera ainsi supprimé définitivement en 2018.
 Cette communauté est réservée aux mineurs et s'adresse plus particulièrement aux filles de 10-14 ans. Une vigilance particulière est apportée par l'équipe d'encadrement afin d'assurer la sécurité des mineurs sur ce support.
